--- a/Data_Envariance/n_qubits_envariance_ibmqx2.xlsx
+++ b/Data_Envariance/n_qubits_envariance_ibmqx2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm\qiskit-sdk-py\Envariance\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm\ibmqx_experiments\Data_Envariance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1024_2" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,6 +350,941 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QX2_8192_3_qubits_envariance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8192_3'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>00000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>00111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>00101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>00110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>00001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>00010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>00011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>00100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8192_3'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3851</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AE3-4ABE-86FF-D595AF0FD400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="503687176"/>
+        <c:axId val="503687504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="503687176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503687504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="503687504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503687176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>8192_5_qubits_envariance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8192_5'!$A$2:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>00000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>00001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>00010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>01111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>01000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>00011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>01011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>00100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>01110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>01001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>01010</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11010</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>00111</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>01100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>01101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>00110</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10010</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>00101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8192_5'!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.3404541015625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2767333984375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3974609375E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.298828125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.96728515625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.82080078125E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.34375E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25830078125E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.89208984375E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.33056640625E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.18408203125E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.568359375E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.32421875E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9814453125E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.859375E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.126953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5166015625E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0283203125E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7841796875E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.662109375E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5400390625E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5634765625E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5634765625E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.197265625E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.197265625E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.197265625E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0751953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.708984375E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.220703125E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D8E-441D-92FB-CE0A635A0878}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="50090001"/>
+        <c:axId val="50090002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50090001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="3000000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50090002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50090002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QX2_8192_5_qubits_envariance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8192_5'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>00000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>00001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>00010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>01111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8192_5'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B649-436C-B611-1B66DEB88E40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="392731536"/>
+        <c:axId val="392732520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="392731536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392732520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392732520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392731536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1693,6 +2628,280 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QX2_8192_2_qubits_envariance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8192_2'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>00000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>00101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>00100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>00001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8192_2'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5F4-4B79-98E1-756052CBBD62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="508580072"/>
+        <c:axId val="508570232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="508580072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508570232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="508570232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508580072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr/>
@@ -1861,331 +3070,1633 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>8192_5_qubits_envariance</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'8192_5'!$A$2:$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>00000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>00001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11110</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>00010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10111</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>01111</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>01000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>00011</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>01011</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>00100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>01110</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>01001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>01010</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10101</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11010</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>00111</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>01100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>01101</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>00110</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10010</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10011</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>00101</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'8192_5'!$C$2:$C$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0.3404541015625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2767333984375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3974609375E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.298828125E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.96728515625E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.82080078125E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.34375E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.25830078125E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.89208984375E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.33056640625E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.18408203125E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.568359375E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.32421875E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.9814453125E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.859375E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.126953125E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5166015625E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.0283203125E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.7841796875E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.662109375E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.5400390625E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.5634765625E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5634765625E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.197265625E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.197265625E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.197265625E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.0751953125E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.708984375E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.220703125E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.765625E-4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.765625E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D8E-441D-92FB-CE0A635A0878}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="50090001"/>
-        <c:axId val="50090002"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="50090001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="3000000"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr baseline="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50090002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50090002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50090001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2472,6 +4983,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893DD804-BCAE-45CF-90B1-2D22D8517F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2513,6 +5060,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CBB34B-6E6C-415F-B40D-7B3396A6974C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2549,6 +5132,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C7D786-0362-4606-A1F7-E61E27309CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2877,10 +5496,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2966,7 +5585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,7 +5718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3474,7 +6093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3563,7 +6182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3696,7 +6315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4082,11 +6701,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4171,11 +6790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4304,11 +6923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
